--- a/data/moduleA/test_cases/test_api.xlsx
+++ b/data/moduleA/test_cases/test_api.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="智能选址" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="智能选址" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="init" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="关联参数填写示例" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -406,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -418,7 +418,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -459,21 +461,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,7 +582,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -629,7 +616,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
@@ -647,31 +634,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
@@ -680,7 +667,7 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1">
@@ -744,58 +731,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1087,7 +1065,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1109,7 +1086,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1139,7 +1115,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1163,7 +1138,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1210,7 +1184,6 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
-        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1232,7 +1205,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1258,7 +1230,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1289,7 +1260,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1316,7 +1286,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1343,7 +1312,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1371,7 +1339,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1396,7 +1363,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1421,7 +1387,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1453,7 +1418,6 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1520,7 +1484,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1552,7 +1515,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1584,7 +1546,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1698,7 +1659,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1730,7 +1690,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1759,7 +1718,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2285,7 +2243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2293,7 +2251,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
@@ -2305,8 +2263,7 @@
     <col width="7.88888888888889" customWidth="1" style="7" min="5" max="5"/>
     <col width="14.7777777777778" customWidth="1" style="14" min="6" max="6"/>
     <col width="14.7777777777778" customWidth="1" style="7" min="7" max="21"/>
-    <col width="25.7777777777778" customWidth="1" style="7" min="22" max="16383"/>
-    <col width="25.7777777777778" customWidth="1" style="7" min="16384" max="16384"/>
+    <col width="25.7777777777778" customWidth="1" style="7" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
@@ -2987,22 +2944,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="E2 E3:E10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2 E3:E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D2:D6 D8:D10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2:D6 D7 D8:D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3022,8 +2979,7 @@
     <col width="5.96296296296296" customWidth="1" style="7" min="4" max="4"/>
     <col width="7.88888888888889" customWidth="1" style="7" min="5" max="5"/>
     <col width="12.7777777777778" customWidth="1" style="7" min="6" max="21"/>
-    <col width="30.637037037037" customWidth="1" style="7" min="22" max="16383"/>
-    <col width="30.637037037037" customWidth="1" style="7" min="16384" max="16384"/>
+    <col width="30.637037037037" customWidth="1" style="7" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customFormat="1" customHeight="1" s="8">
@@ -32463,7 +32419,7 @@
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:U1048576 A2:C1048576 D14:D1048576">
+  <conditionalFormatting sqref="A2:C1048576 D14:D1048576 E2:U1048576">
     <cfRule type="containsBlanks" priority="2466" dxfId="23">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
@@ -32478,22 +32434,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="D2 D3:D13" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2 D3:D13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E11 E12 E13 E5:E10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2 E3 E4 E5:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -32501,7 +32457,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -32509,7 +32465,7 @@
     <col width="2.55555555555556" customWidth="1" style="5" min="1" max="1"/>
     <col width="15.1111111111111" customWidth="1" style="5" min="2" max="2"/>
     <col width="24.1111111111111" customWidth="1" style="5" min="3" max="3"/>
-    <col width="15.6666666666667" customWidth="1" style="5" min="4" max="4"/>
+    <col width="18.4444444444444" customWidth="1" style="5" min="4" max="4"/>
     <col width="20.8888888888889" customWidth="1" style="5" min="5" max="5"/>
     <col width="23.8888888888889" customWidth="1" style="5" min="6" max="6"/>
     <col width="44.4444444444444" customWidth="1" style="5" min="7" max="7"/>
@@ -32780,7 +32736,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1 E1:F2 A2:B3">
+  <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
     <cfRule type="containsBlanks" priority="142" dxfId="48">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -32817,7 +32773,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
+    <hyperlink ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
@@ -32839,7 +32795,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" ht="234" customHeight="1" s="15">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>示例：
 提取请求参数：{"id":"$..id"}
@@ -32866,12 +32822,12 @@
 }</t>
         </is>
       </c>
-      <c r="B1" s="17" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="18" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/moduleA/test_cases/test_api.xlsx
+++ b/data/moduleA/test_cases/test_api.xlsx
@@ -2251,10 +2251,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="7" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="7" min="2" max="2"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-classification/base/project/info?t={{timestamp}}&amp;id={{projectId}}</t>
+          <t>/ibs/api/ibs-classification/base/project/info?t={{get_timestamp()}}&amp;id={{projectId}}</t>
         </is>
       </c>
       <c r="G3" s="14" t="n"/>
@@ -2443,8 +2443,16 @@
       <c r="P3" s="14" t="n"/>
       <c r="Q3" s="14" t="n"/>
       <c r="R3" s="14" t="n"/>
-      <c r="S3" s="14" t="inlineStr"/>
-      <c r="T3" s="14" t="inlineStr"/>
+      <c r="S3" s="14" t="inlineStr">
+        <is>
+          <t>{"code":200,"success":true,"data":{"id":"104966","type":0,"name":"张家口蔚县蔚州镇碧桂园","baseName":"张家口蔚县蔚州镇碧桂园","constructionUnit":"2","designUnit":"3","supervisingUnit":"4","buildUnit":"1","structure":"钢混","address":"县政府","lngLat":"114.589021,39.840676","totalArea":345.0,"groundArea":0.0,"undergroundArea":0.0,"effectPicture":"","planningGraph":"","complete":false,"screenSetting":"1,2,3,4,5,6","regionId":"","regionName":"","groupId":"","provinceCode":"130000","cityCode":"130700","areaCode":"130726","mainDataName":"","createId":"","createDatetime":"2022-05-10 09:17:56","operatorName":"lsw","operatorPhone":"","province":"河北省","city":"张家口市","area":"蔚　县","updateId":"3505","updateDatetime":"2022-06-30 09:53:48","milestoneList":[],"subjectId":null,"startDate":"2022-04-01","endDate":"2023-05-19","takeApartOneBuilding":false,"modelViewDada":"","modelRelatedData":""},"msg":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="T3" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="U3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1" s="15">
@@ -2473,7 +2481,7 @@
       </c>
       <c r="F4" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/screen/hiddenLeverNum?t={{timestamp}}&amp;projectId={{projectId}}</t>
+          <t>/ibs/api/ibs-security/screen/hiddenLeverNum?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
         </is>
       </c>
       <c r="G4" s="14" t="n"/>
@@ -2488,8 +2496,16 @@
       <c r="P4" s="14" t="n"/>
       <c r="Q4" s="14" t="n"/>
       <c r="R4" s="14" t="n"/>
-      <c r="S4" s="14" t="inlineStr"/>
-      <c r="T4" s="14" t="inlineStr"/>
+      <c r="S4" s="14" t="inlineStr">
+        <is>
+          <t>{"code":200,"success":true,"data":[],"msg":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="U4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="26" customHeight="1" s="15">
@@ -2518,7 +2534,7 @@
       </c>
       <c r="F5" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/selectNumberForRectificationInTime?t={{timestamp}}&amp;buildingId=&amp;projectId={{projectId}}</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/selectNumberForRectificationInTime?t={{get_timestamp()}}&amp;buildingId=&amp;projectId={{projectId}}</t>
         </is>
       </c>
       <c r="G5" s="14" t="n"/>
@@ -2588,7 +2604,7 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E6" s="14" t="inlineStr">
@@ -2598,7 +2614,7 @@
       </c>
       <c r="F6" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/rectificationCount?t={{timestamp}}&amp;buildingId=&amp;floorNo=&amp;projectId={{projectId}}</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/rectificationCount?t={{get_timestamp()}}&amp;buildingId=&amp;floorNo=&amp;projectId={{projectId}}</t>
         </is>
       </c>
       <c r="G6" s="14" t="n"/>
@@ -2663,9 +2679,9 @@
           <t>大盘-获取任务到期预警数据-全部</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
@@ -2675,7 +2691,7 @@
       </c>
       <c r="F7" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/listAll?t={{timestamp}}&amp;buildingId=&amp;order=2&amp;floorNo=&amp;importance=&amp;projectId={{projectId}}</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/listAll?t={{get_timestamp()}}&amp;buildingId=&amp;order=2&amp;floorNo=&amp;importance=&amp;projectId={{projectId}}</t>
         </is>
       </c>
       <c r="G7" s="14" t="n"/>
@@ -2747,7 +2763,7 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
@@ -2757,7 +2773,7 @@
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityRectificationLevel?t={{timestamp}}&amp;buildingId=&amp;projectId={{projectId}}&amp;moduleType=1</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityRectificationLevel?t={{get_timestamp()}}&amp;buildingId=&amp;projectId={{projectId}}&amp;moduleType=1</t>
         </is>
       </c>
       <c r="G8" s="14" t="n"/>
@@ -2818,7 +2834,7 @@
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E9" s="14" t="inlineStr">
@@ -2828,7 +2844,7 @@
       </c>
       <c r="F9" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityRectificationLevel?t={{timestamp}}&amp;buildingId=&amp;projectId={{projectId}}&amp;moduleType=2</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityRectificationLevel?t={{get_timestamp()}}&amp;buildingId=&amp;projectId={{projectId}}&amp;moduleType=2</t>
         </is>
       </c>
       <c r="G9" s="14" t="n"/>
@@ -2889,7 +2905,7 @@
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
@@ -2899,7 +2915,7 @@
       </c>
       <c r="F10" s="14" t="inlineStr">
         <is>
-          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityCheckTypeInfo?t={{timestamp}}&amp;buildingId=&amp;projectId={{projectId}}</t>
+          <t>/ibs/api/ibs-security/rectificationIndex/getSecurityCheckTypeInfo?t={{get_timestamp()}}&amp;buildingId=&amp;projectId={{projectId}}</t>
         </is>
       </c>
       <c r="G10" s="14" t="n"/>
@@ -2944,11 +2960,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation sqref="D2:D4 D5:D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
     <dataValidation sqref="E2 E3:E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D6 D7 D8:D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2972,7 +2988,7 @@
       <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="30.637037037037" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="30.637037037037" defaultRowHeight="25" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="7" min="1" max="1"/>
     <col width="12.7777777777778" customWidth="1" style="7" min="2" max="3"/>
@@ -32434,11 +32450,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation sqref="E2 E3 E4 E5:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
     <dataValidation sqref="D2 D3:D13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -32460,7 +32476,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="5" min="1" max="1"/>
     <col width="15.1111111111111" customWidth="1" style="5" min="2" max="2"/>

--- a/data/moduleA/test_cases/test_api.xlsx
+++ b/data/moduleA/test_cases/test_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
@@ -2231,11 +2231,11 @@
   </sheetPr>
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="2" min="2" max="2"/>
@@ -2448,7 +2448,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="14" t="n"/>
       <c r="G4" s="14" t="n"/>
       <c r="H4" s="14" t="n"/>
       <c r="I4" s="14" t="n"/>
@@ -2489,7 +2488,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="14" t="n"/>
       <c r="G5" s="14" t="n"/>
       <c r="H5" s="14" t="n"/>
       <c r="I5" s="14" t="n"/>
@@ -2498,10 +2496,7 @@
       <c r="L5" s="14" t="n"/>
       <c r="M5" s="14" t="n"/>
       <c r="N5" s="14" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
       <c r="Q5" s="14" t="n"/>
-      <c r="R5" s="2" t="n"/>
       <c r="S5" s="14" t="inlineStr"/>
       <c r="T5" s="14" t="inlineStr"/>
       <c r="U5" s="14" t="inlineStr"/>
@@ -2530,7 +2525,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="14" t="n"/>
       <c r="G6" s="14" t="n"/>
       <c r="H6" s="14" t="n"/>
       <c r="I6" s="14" t="n"/>
@@ -2539,10 +2533,7 @@
       <c r="L6" s="14" t="n"/>
       <c r="M6" s="14" t="n"/>
       <c r="N6" s="14" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="14" t="n"/>
-      <c r="R6" s="2" t="n"/>
       <c r="S6" s="14" t="inlineStr"/>
       <c r="T6" s="14" t="inlineStr"/>
       <c r="U6" s="14" t="inlineStr"/>
@@ -2571,7 +2562,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F7" s="14" t="n"/>
       <c r="G7" s="14" t="n"/>
       <c r="H7" s="14" t="n"/>
       <c r="I7" s="14" t="n"/>
@@ -2580,10 +2570,7 @@
       <c r="L7" s="14" t="n"/>
       <c r="M7" s="14" t="n"/>
       <c r="N7" s="14" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
       <c r="Q7" s="14" t="n"/>
-      <c r="R7" s="2" t="n"/>
       <c r="S7" s="14" t="inlineStr"/>
       <c r="T7" s="14" t="inlineStr"/>
       <c r="U7" s="14" t="inlineStr"/>
@@ -2612,7 +2599,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F8" s="14" t="n"/>
       <c r="G8" s="14" t="n"/>
       <c r="H8" s="14" t="n"/>
       <c r="I8" s="14" t="n"/>
@@ -2621,10 +2607,7 @@
       <c r="L8" s="14" t="n"/>
       <c r="M8" s="14" t="n"/>
       <c r="N8" s="14" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="14" t="n"/>
-      <c r="R8" s="2" t="n"/>
       <c r="S8" s="14" t="inlineStr"/>
       <c r="T8" s="14" t="inlineStr"/>
       <c r="U8" s="14" t="inlineStr"/>
@@ -2653,7 +2636,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F9" s="14" t="n"/>
       <c r="G9" s="14" t="n"/>
       <c r="H9" s="14" t="n"/>
       <c r="I9" s="14" t="n"/>
@@ -2662,10 +2644,7 @@
       <c r="L9" s="14" t="n"/>
       <c r="M9" s="14" t="n"/>
       <c r="N9" s="14" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
       <c r="Q9" s="14" t="n"/>
-      <c r="R9" s="2" t="n"/>
       <c r="S9" s="14" t="inlineStr"/>
       <c r="T9" s="14" t="inlineStr"/>
       <c r="U9" s="14" t="inlineStr"/>
@@ -2694,7 +2673,6 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F10" s="14" t="n"/>
       <c r="G10" s="14" t="n"/>
       <c r="H10" s="14" t="n"/>
       <c r="I10" s="14" t="n"/>
@@ -2752,24 +2730,12 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>[{"check":"code","comparator":"eq","expect":2006},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
+          <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
         </is>
       </c>
-      <c r="S11" s="0" t="inlineStr">
-        <is>
-          <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-        </is>
-      </c>
-      <c r="T11" s="0" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="U11" s="0" t="inlineStr">
-        <is>
-          <t>('FAIL', [{'检查项': 'code', '期望值': 2006, '实际值': 200, '断言方法': 'eq:实际值与期望值相等'}])</t>
-        </is>
-      </c>
+      <c r="S11" s="0" t="inlineStr"/>
+      <c r="T11" s="0" t="inlineStr"/>
+      <c r="U11" s="0" t="inlineStr"/>
     </row>
     <row r="12" ht="82.5" customHeight="1" s="1">
       <c r="A12" s="2" t="n">
@@ -2787,7 +2753,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2802,7 +2768,7 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>{"check":"data[0].tvSequence","comparator":"eq","expect":"{{tvSequence}}"}</t>
+          <t>{"check":"data[0].tvSequence","comparator":"contained_by","expect":"{{tvSequence}}"}</t>
         </is>
       </c>
       <c r="S12" s="0" t="inlineStr"/>
@@ -2840,11 +2806,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation sqref="D2:D4 D5:D10 D11 D12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
     <dataValidation sqref="E2 E3:E10 E11 E12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D4 D5:D10 D11 D12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,7 +2834,7 @@
       <selection pane="topRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="30.637037037037" defaultRowHeight="25" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="30.637037037037" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="2" min="1" max="1"/>
     <col width="12.7777777777778" customWidth="1" style="2" min="2" max="3"/>
@@ -32330,11 +32296,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation sqref="E2 E3 E4 E5:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
     <dataValidation sqref="D2 D3:D13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -32352,11 +32318,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="5" min="1" max="1"/>
     <col width="15.1111111111111" customWidth="1" style="5" min="2" max="2"/>
@@ -32682,22 +32648,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col width="75.3333333333333" customWidth="1" style="1" min="1" max="1"/>
     <col width="66.6666666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="40.3333333333333" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
     <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="234" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2" ht="234" customHeight="1" s="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>示例：
 提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
@@ -32724,7 +32691,7 @@
 }</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>预期结果填写示例：
 参数格式 list、dict
@@ -32732,12 +32699,36 @@
                     or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="5" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/moduleA/test_cases/test_api.xlsx
+++ b/data/moduleA/test_cases/test_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28095" windowHeight="12390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
@@ -711,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1899,7 +1902,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:U13" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:U7" headerRowCount="1">
   <tableColumns count="21">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="name" dataDxfId="1"/>
@@ -2226,13 +2229,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
@@ -2240,7 +2243,8 @@
     <col width="4.22222222222222" customWidth="1" style="3" min="4" max="4"/>
     <col width="7.88888888888889" customWidth="1" style="3" min="5" max="5"/>
     <col width="14.7777777777778" customWidth="1" style="10" min="6" max="6"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="7" max="21"/>
+    <col width="29.8888888888889" customWidth="1" style="3" min="7" max="7"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="8" max="21"/>
     <col width="25.7777777777778" customWidth="1" style="3" min="22" max="16384"/>
   </cols>
   <sheetData>
@@ -2380,50 +2384,66 @@
       <c r="T2" s="0" t="inlineStr"/>
       <c r="U2" s="13" t="inlineStr"/>
     </row>
-    <row r="3" ht="26" customHeight="1" s="1">
-      <c r="A3" s="10" t="n">
+    <row r="3" ht="26" customFormat="1" customHeight="1" s="14">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>安全大屏</t>
+          <t>登录</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>查询项目基本信息</t>
+          <t>非BIP用户登录</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="10" t="n"/>
-      <c r="N3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="10" t="n"/>
-      <c r="R3" s="10" t="n"/>
-      <c r="S3" s="10" t="inlineStr"/>
-      <c r="T3" s="10" t="inlineStr"/>
-      <c r="U3" s="10" t="inlineStr"/>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>/auth/loginByNotBip</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>{"token": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="0" t="inlineStr"/>
+      <c r="T3" s="0" t="inlineStr"/>
+      <c r="U3" s="13" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1" s="1">
-      <c r="A4" s="10" t="n">
-        <v>3</v>
+      <c r="A4" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
@@ -2432,7 +2452,7 @@
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>查询楼栋模型所有数据</t>
+          <t>大盘-隐患类型数据</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -2461,337 +2481,122 @@
       <c r="T4" s="10" t="inlineStr"/>
       <c r="U4" s="10" t="inlineStr"/>
     </row>
-    <row r="5" ht="26" customHeight="1" s="1">
-      <c r="A5" s="10" t="n">
-        <v>4</v>
+    <row r="5" ht="115.5" customHeight="1" s="1">
+      <c r="A5" s="3" t="n">
+        <v>11</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>安全大屏</t>
+          <t>劳务基础配置</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>获取及时整改率，及时整改数，整改总数信息-大盘</t>
+          <t>绑定TV</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{token}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {"tvSequence": "$..tvSequence"}</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
+        </is>
+      </c>
+      <c r="S5" s="0" t="inlineStr"/>
+      <c r="T5" s="0" t="inlineStr"/>
+      <c r="U5" s="0" t="inlineStr"/>
+    </row>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>查询配置</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n"/>
-      <c r="Q5" s="10" t="n"/>
-      <c r="S5" s="10" t="inlineStr"/>
-      <c r="T5" s="10" t="inlineStr"/>
-      <c r="U5" s="10" t="inlineStr"/>
-    </row>
-    <row r="6" ht="26" customHeight="1" s="1">
-      <c r="A6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
-          <t>安全大屏</t>
+          <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>查询大盘-待整改-逾期未整改-已整改</t>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{token}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="n"/>
-      <c r="H6" s="10" t="n"/>
-      <c r="I6" s="10" t="n"/>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="n"/>
-      <c r="L6" s="10" t="n"/>
-      <c r="M6" s="10" t="n"/>
-      <c r="N6" s="10" t="n"/>
-      <c r="Q6" s="10" t="n"/>
-      <c r="S6" s="10" t="inlineStr"/>
-      <c r="T6" s="10" t="inlineStr"/>
-      <c r="U6" s="10" t="inlineStr"/>
-    </row>
-    <row r="7" ht="26" customHeight="1" s="1">
-      <c r="A7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>大盘-获取任务到期预警数据-全部</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
-      <c r="N7" s="10" t="n"/>
-      <c r="Q7" s="10" t="n"/>
-      <c r="S7" s="10" t="inlineStr"/>
-      <c r="T7" s="10" t="inlineStr"/>
-      <c r="U7" s="10" t="inlineStr"/>
-    </row>
-    <row r="8" ht="26" customHeight="1" s="1">
-      <c r="A8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>大盘-任务到期预警严重等级统计（重大，较大，一般）</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="10" t="n"/>
-      <c r="Q8" s="10" t="n"/>
-      <c r="S8" s="10" t="inlineStr"/>
-      <c r="T8" s="10" t="inlineStr"/>
-      <c r="U8" s="10" t="inlineStr"/>
-    </row>
-    <row r="9" ht="26" customHeight="1" s="1">
-      <c r="A9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患等级统计（重大隐患、较大隐患、一般隐患）</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="10" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="n"/>
-      <c r="M9" s="10" t="n"/>
-      <c r="N9" s="10" t="n"/>
-      <c r="Q9" s="10" t="n"/>
-      <c r="S9" s="10" t="inlineStr"/>
-      <c r="T9" s="10" t="inlineStr"/>
-      <c r="U9" s="10" t="inlineStr"/>
-    </row>
-    <row r="10" ht="26" customHeight="1" s="1">
-      <c r="A10" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="n"/>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="n"/>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="10" t="n"/>
-      <c r="N10" s="10" t="n"/>
-      <c r="O10" s="10" t="n"/>
-      <c r="P10" s="10" t="n"/>
-      <c r="Q10" s="10" t="n"/>
-      <c r="R10" s="10" t="n"/>
-      <c r="S10" s="10" t="inlineStr"/>
-      <c r="T10" s="10" t="inlineStr"/>
-      <c r="U10" s="10" t="inlineStr"/>
-    </row>
-    <row r="11" ht="115.5" customHeight="1" s="1">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/api/addTvSequence?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> {"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
-        </is>
-      </c>
-      <c r="S11" s="0" t="inlineStr"/>
-      <c r="T11" s="0" t="inlineStr"/>
-      <c r="U11" s="0" t="inlineStr"/>
-    </row>
-    <row r="12" ht="82.5" customHeight="1" s="1">
-      <c r="A12" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/apistTvSequence?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>{"check":"data[0].tvSequence","comparator":"contained_by","expect":"{{tvSequence}}"}</t>
         </is>
       </c>
-      <c r="S12" s="0" t="inlineStr"/>
-      <c r="T12" s="0" t="inlineStr"/>
-      <c r="U12" s="0" t="inlineStr"/>
+      <c r="S6" s="0" t="inlineStr"/>
+      <c r="T6" s="0" t="inlineStr"/>
+      <c r="U6" s="0" t="inlineStr"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1" s="1">
-      <c r="E13" s="3" t="inlineStr">
+    <row r="7" ht="16.5" customHeight="1" s="1">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>TIME</t>
         </is>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F7" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="S13" s="0" t="inlineStr"/>
-      <c r="T13" s="0" t="inlineStr"/>
-      <c r="U13" s="0" t="inlineStr"/>
+      <c r="S7" s="0" t="inlineStr"/>
+      <c r="T7" s="0" t="inlineStr"/>
+      <c r="U7" s="0" t="inlineStr"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="21">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D7">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="21">
       <formula>"NO"</formula>
     </cfRule>
@@ -2815,17 +2620,17 @@
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D11 D14:D1048576">
+  <conditionalFormatting sqref="D1:D5 D8:D1048576">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="21">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="E2 E3:E10 E11 E12 E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2:D4 D5:D10 D11 D12 D13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2846,7 +2651,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="30.637037037037" defaultRowHeight="25" customHeight="1" outlineLevelRow="3"/>
@@ -19394,7 +19199,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E3" s="10" t="inlineStr">
@@ -19468,7 +19273,7 @@
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -31314,7 +31119,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -31383,7 +31188,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>https://xxxxx.xxxxx.com</t>
+          <t>https://bimdc.bzlrobot.com</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -31410,10 +31215,10 @@
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>{
-"{{account}}":"",
-"{{passwd}}":"/+/+=",
-"{{projectId}}":"532234",
-"{{tenant}}":"234235"
+"{{account}}":"18127813600",
+"{{passwd}}":"KQX89QKceHEpywkR6uQCB+3Ul7PiIdsKGSg2vl54MIy5LpMGs1oQxDHlo9/qTStjMCxaSVL9LD6MINwpz0ArarOfsNQPtOTEVBFtgilESMQhmVXa/7kQo9Z9utfqyXRpv+ewITh2S6+SpQWP6LSt265T5Lx1Dt1NaKcAVG7eaO0=",
+"{{projectId}}":"104966",
+"{{tenant}}":"216317749963825419"
 }</t>
         </is>
       </c>
@@ -31630,7 +31435,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://xxxxx.xxxxx.com" display="https://xxxxx.xxxxx.com" r:id="rId1"/>
+    <hyperlink ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
@@ -31646,7 +31451,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>

--- a/data/moduleA/test_cases/test_api.xlsx
+++ b/data/moduleA/test_cases/test_api.xlsx
@@ -2231,8 +2231,8 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
@@ -2427,7 +2427,7 @@
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>{"token": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
         </is>
       </c>
       <c r="L3" s="3" t="n"/>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="4" ht="26" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="5" ht="115.5" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{token}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> {"tvSequence": "$..tvSequence"}</t>
+          <t>{"tvSequence": "$..tvSequence"}</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="6" ht="82.5" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{token}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
